--- a/15_myhome/계층게시판.xlsx
+++ b/15_myhome/계층게시판.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOODEE\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24045" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,97 +98,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기존 댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>같은 GROUP_NO를 가진 게시물 중에서
+    <t>FREE_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 점심 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ㄴ1김치찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ㄴ2짬뽕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-&gt;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ㄴ3분식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-&gt;2-&gt;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ㄴ1나도이거요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ㄴ2나도이거요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-&gt;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_NO DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_ORDER ASC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항상 최신 게시글이 상단으로 올라오는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 댓글
+(선행작업)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원글과 같은 GROUP_NO를 가진 게시물 중에서
 원글의 GROUP_ORDER보다 큰 GROUP_ORDER값을 가진 게시물들의
 GROUP_ORDER값을 1씩 증가시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FREE_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTENTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEPTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_ORDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘 점심 메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ㄴ1김치찌개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ㄴ2짬뽕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-&gt;2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ㄴ3분식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-&gt;2-&gt;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    ㄴ1나도이거요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    ㄴ2나도이거요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-&gt;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정렬x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 정렬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_NO DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 정렬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_ORDER ASC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항상 최신 게시글이 상단으로 올라오는 방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정렬O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,14 +240,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,7 +531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -606,7 +605,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
@@ -617,7 +616,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -626,7 +625,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -635,51 +634,51 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>35</v>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -687,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -698,32 +697,32 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -732,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -752,14 +751,14 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -768,16 +767,16 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -788,47 +787,47 @@
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>22</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>23</v>
       </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>41</v>
+      <c r="G32" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -836,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -847,14 +846,14 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -865,14 +864,14 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -881,34 +880,34 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>2</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -919,14 +918,14 @@
       <c r="E37">
         <v>4</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -935,9 +934,9 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="G38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/15_myhome/계층게시판.xlsx
+++ b/15_myhome/계층게시판.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28425" windowHeight="11145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24045" windowHeight="10650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H13"/>
+  <oleSize ref="A1:G14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -304,14 +304,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,9 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A19"/>
-    </sheetView>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -669,7 +667,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
@@ -680,7 +678,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -689,7 +687,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -698,32 +696,32 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -741,7 +739,7 @@
       <c r="E21" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -761,7 +759,7 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -779,7 +777,7 @@
       <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -797,7 +795,7 @@
       <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -815,7 +813,7 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -833,7 +831,7 @@
       <c r="E26" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -851,7 +849,7 @@
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -890,7 +888,7 @@
       <c r="E32" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -910,7 +908,7 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
@@ -928,7 +926,7 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
@@ -946,7 +944,7 @@
       <c r="E35" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -964,7 +962,7 @@
       <c r="E36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
@@ -982,7 +980,7 @@
       <c r="E37">
         <v>4</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
@@ -1000,7 +998,7 @@
       <c r="E38" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1021,7 +1019,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1080,16 +1078,16 @@
     </row>
     <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1195,16 +1193,16 @@
       <c r="F19" s="2"/>
     </row>
     <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1221,7 +1219,7 @@
       <c r="D22" s="1">
         <v>4</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1238,7 +1236,7 @@
       <c r="D23">
         <v>4</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1253,7 +1251,7 @@
       <c r="D24" s="1">
         <v>3</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -1268,7 +1266,7 @@
       <c r="D25">
         <v>3</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -1283,7 +1281,7 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -1298,7 +1296,7 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:6" customFormat="1" x14ac:dyDescent="0.3"/>
